--- a/biology/Botanique/Livistona_chinensis/Livistona_chinensis.xlsx
+++ b/biology/Botanique/Livistona_chinensis/Livistona_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Livistona chinensis est une espèce de latanier, un type de palmier, originaire du sud du Japon et de Taïwan[1]. Son aire de distribution naturelle comprend aussi le sud de la Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Livistona chinensis est une espèce de latanier, un type de palmier, originaire du sud du Japon et de Taïwan. Son aire de distribution naturelle comprend aussi le sud de la Chine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Latanier de Chine.
 Palmier fontaine, en raison du port de ses palmes qui retombent.
@@ -543,7 +557,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Latanier</t>
         </is>
